--- a/SQL ou NoSQL - Checklist.xlsx
+++ b/SQL ou NoSQL - Checklist.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Library/Mobile Documents/com~apple~CloudDocs/Posts Blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2033BF4C-74D3-1946-ACE1-86C8C83907FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499C497-22DF-9344-82FC-EF727107A1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="1" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Bancos de Dados Relacionais" sheetId="1" r:id="rId1"/>
+    <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">Precisa de Atomicidade, Consistência, Isolmento e Durabilidade (ACID) com desempenho </t>
   </si>
@@ -77,6 +78,49 @@
   </si>
   <si>
     <t>Veja o post que deu origem a esta planilha clicando neste link</t>
+  </si>
+  <si>
+    <t>Esta planilha faz parte da série SQL ou NoSQL, publicada no blog DB4Beginners.com
+As seguintes características são fortes índícios de que um banco de dados MongoDB deve ser usado</t>
+  </si>
+  <si>
+    <t>Dados no formato JSON</t>
+  </si>
+  <si>
+    <t>Manipulação de dados no formato JSON</t>
+  </si>
+  <si>
+    <t>Servidores Comodities</t>
+  </si>
+  <si>
+    <t>Mecanismos nativos para alta disponibilidade</t>
+  </si>
+  <si>
+    <t>Alto desempenho</t>
+  </si>
+  <si>
+    <t>Consistência eventual não é problema</t>
+  </si>
+  <si>
+    <t>Schema que evolui contantemente</t>
+  </si>
+  <si>
+    <t>Uso de DDD (Domain Driven Design)</t>
+  </si>
+  <si>
+    <t>Não precisa de transações (embora o MongoDB tenha suporte a elas)</t>
+  </si>
+  <si>
+    <t>Não precisa de propriedades ACID</t>
+  </si>
+  <si>
+    <t>Conhece modelagem de dados para MongoDB</t>
+  </si>
+  <si>
+    <t>Processamento de dados, próximo do tempo real</t>
+  </si>
+  <si>
+    <t>Para utilização da versão Community, o código da aplicação é aberto</t>
   </si>
 </sst>
 </file>
@@ -142,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +199,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -193,7 +243,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagem 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B5F63E-7B0C-1B49-8006-A70176C11B65}"/>
@@ -205,7 +254,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -219,6 +268,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177800" y="127000"/>
+          <a:ext cx="3390900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BC3015-002C-BC42-B2E0-BADB8BFBCE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="3390900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -530,9 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3700789B-D6B7-264C-886A-D01B0C2FD865}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -647,4 +749,103 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16117E35-D86B-8342-A224-6A01F407AA38}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="83.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D64FEF5E-446A-9147-AB70-1534475C191A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SQL ou NoSQL - Checklist.xlsx
+++ b/SQL ou NoSQL - Checklist.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Library/Mobile Documents/com~apple~CloudDocs/Posts Blog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499C497-22DF-9344-82FC-EF727107A1C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1959A-9BFC-E949-9794-88A30A1B15B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="1" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="2" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Bancos de Dados Relacionais" sheetId="1" r:id="rId1"/>
     <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
+    <sheet name="Neo4J" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">Precisa de Atomicidade, Consistência, Isolmento e Durabilidade (ACID) com desempenho </t>
   </si>
@@ -121,13 +122,89 @@
   </si>
   <si>
     <t>Para utilização da versão Community, o código da aplicação é aberto</t>
+  </si>
+  <si>
+    <t>Esta planilha faz parte da série SQL ou NoSQL, publicada no blog DB4Beginners.com
+As seguintes características são fortes índícios de que um banco de dados Neo4J deve ser usado</t>
+  </si>
+  <si>
+    <t>Necessidade de máximo desempenho para recuperar dados conectados;</t>
+  </si>
+  <si>
+    <t>Quando os dados são hierárquicos (por exemplo, hierarquia de funcionários de um departamento);</t>
+  </si>
+  <si>
+    <t>Se a for necessário fazer a correspondência entre dados históricos e dados em memória (dados de sessão), como em mecanismos de recomendação em tempo real;</t>
+  </si>
+  <si>
+    <t>Necessário manipular dados conectados e em grande volume;</t>
+  </si>
+  <si>
+    <t>Quando seus dados são normalizados (leia aqui consultas que têm muitos joins), e é necessário alto desempenho na leitura. Neste caso é possível combinar o Neo4J com outros bancos de dados</t>
+  </si>
+  <si>
+    <t>Análise de fraudes</t>
+  </si>
+  <si>
+    <t>Análise de dados mestres</t>
+  </si>
+  <si>
+    <t>Alguns casos de uso provenientes do site Neo4J.com</t>
+  </si>
+  <si>
+    <t>Gerenciamento de ativos</t>
+  </si>
+  <si>
+    <t>Catalogação</t>
+  </si>
+  <si>
+    <t>Gerenciamento de conteúdo</t>
+  </si>
+  <si>
+    <t>Inventário</t>
+  </si>
+  <si>
+    <t>Processos de fluxo de trabalho</t>
+  </si>
+  <si>
+    <t>Análises de fraude de Comércio Eletrônico, Fraude Bancária Primária, Fraude de Seguros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recomendações de conteúdo e mídia </t>
+  </si>
+  <si>
+    <t>Recomendações de produtos</t>
+  </si>
+  <si>
+    <t>Redes profissionais</t>
+  </si>
+  <si>
+    <t>Recomendações sociais</t>
+  </si>
+  <si>
+    <t>Recomendações de amigos</t>
+  </si>
+  <si>
+    <t>Análise de influenciadores</t>
+  </si>
+  <si>
+    <t>Análise de compartilhamento e colaboração</t>
+  </si>
+  <si>
+    <t>Análise e cadastro de Propriedade de dados</t>
+  </si>
+  <si>
+    <t>Análises de impacto na manipulação de dados</t>
+  </si>
+  <si>
+    <t>Se em seu modelo Entidade-Relacionamento você identificar muitos relacionamentos do tipo Muitos para Muitos (MXN);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,13 +241,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF191E23"/>
+      <name val="Noto Serif"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF191E23"/>
+      <name val="Noto Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -206,6 +307,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -323,6 +434,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
+          <a:ext cx="3390900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3441700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C950DDC-8C77-514C-B5F3-1F59F2D35DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="381000"/>
           <a:ext cx="3390900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -636,13 +802,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="54.83203125" customWidth="1"/>
     <col min="2" max="2" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="109" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="109" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>15</v>
@@ -655,7 +821,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -667,77 +833,77 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="40">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="20">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="20">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="20">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,88 +921,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16117E35-D86B-8342-A224-6A01F407AA38}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="83.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="100" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="100">
       <c r="A1" s="6"/>
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -848,4 +1014,149 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D503F-7791-3749-B360-4AD34A6C8FEC}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="73.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="131" customHeight="1">
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42">
+      <c r="A2" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="63">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="8" customFormat="1" ht="53">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21">
+      <c r="A10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21">
+      <c r="A11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21">
+      <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="42">
+      <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="21">
+      <c r="A17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21">
+      <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="21">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21">
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="21">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21">
+      <c r="A22" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="21">
+      <c r="A23" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="21">
+      <c r="A24" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21">
+      <c r="A25" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SQL ou NoSQL - Checklist.xlsx
+++ b/SQL ou NoSQL - Checklist.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1959A-9BFC-E949-9794-88A30A1B15B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE433747-076F-5041-AC6B-7B4D1D7D8A5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="2" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="3" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Bancos de Dados Relacionais" sheetId="1" r:id="rId1"/>
     <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
     <sheet name="Neo4J" sheetId="3" r:id="rId3"/>
+    <sheet name="REDIS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t xml:space="preserve">Precisa de Atomicidade, Consistência, Isolmento e Durabilidade (ACID) com desempenho </t>
   </si>
@@ -198,13 +199,41 @@
   </si>
   <si>
     <t>Se em seu modelo Entidade-Relacionamento você identificar muitos relacionamentos do tipo Muitos para Muitos (MXN);</t>
+  </si>
+  <si>
+    <t>Cache de aplicações</t>
+  </si>
+  <si>
+    <t>Banco de dados secundário</t>
+  </si>
+  <si>
+    <t>Alto volume de dados</t>
+  </si>
+  <si>
+    <t>Filas</t>
+  </si>
+  <si>
+    <t>Mensageria</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Itens que tem tempo de duração determinado</t>
+  </si>
+  <si>
+    <t>Esta planilha faz parte da série SQL ou NoSQL, publicada no blog DB4Beginners.com
+As seguintes características são fortes índícios de que um banco de dados Redis deve ser usado</t>
+  </si>
+  <si>
+    <t>Análises em tempo real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +288,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -287,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -318,6 +353,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -489,6 +525,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="50800" y="381000"/>
+          <a:ext cx="3390900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74064BC2-D202-F848-888F-EC094E7C48CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
           <a:ext cx="3390900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1020,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D503F-7791-3749-B360-4AD34A6C8FEC}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1159,4 +1250,70 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D2104-22E0-A74F-A696-53235F624147}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="75.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="98" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SQL ou NoSQL - Checklist.xlsx
+++ b/SQL ou NoSQL - Checklist.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Library/Containers/com.microsoft.Excel/Data/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE433747-076F-5041-AC6B-7B4D1D7D8A5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C763E3-4F9E-3248-86B4-913B88F4F2D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="3" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="4" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Bancos de Dados Relacionais" sheetId="1" r:id="rId1"/>
     <sheet name="MongoDB" sheetId="2" r:id="rId2"/>
     <sheet name="Neo4J" sheetId="3" r:id="rId3"/>
     <sheet name="REDIS" sheetId="4" r:id="rId4"/>
+    <sheet name="Cassandra" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t xml:space="preserve">Precisa de Atomicidade, Consistência, Isolmento e Durabilidade (ACID) com desempenho </t>
   </si>
@@ -227,13 +228,38 @@
   </si>
   <si>
     <t>Análises em tempo real</t>
+  </si>
+  <si>
+    <t>Esta planilha faz parte da série SQL ou NoSQL, publicada no blog DB4Beginners.com
+As seguintes características são fortes índícios de que um banco de dados Cassandra deve ser usado</t>
+  </si>
+  <si>
+    <t>Você conhece as suas consultas;</t>
+  </si>
+  <si>
+    <t>Se tem um alto volume de dados;</t>
+  </si>
+  <si>
+    <t>Se tem mais de 3 servidores;</t>
+  </si>
+  <si>
+    <t>Dados desnormalizados;</t>
+  </si>
+  <si>
+    <t>Quando você tiver tempo e recursos para modelar os dados;</t>
+  </si>
+  <si>
+    <t>Não precisa de transações;</t>
+  </si>
+  <si>
+    <t>Não precisa de integridade referencial;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +320,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191E23"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -322,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,6 +386,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -580,6 +613,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
+          <a:ext cx="3390900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1079500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B186AC9-C648-664F-AEAE-6126AF05D633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="127000"/>
           <a:ext cx="3390900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1256,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972D2104-22E0-A74F-A696-53235F624147}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1316,4 +1404,68 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC21D1B-4FB8-754C-9DBA-0CBCE6B54A79}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="75.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="98" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SQL ou NoSQL - Checklist.xlsx
+++ b/SQL ou NoSQL - Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DaniMonteiroDBA/Library/Containers/com.microsoft.Excel/Data/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C763E3-4F9E-3248-86B4-913B88F4F2D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E31FB-2C81-C34D-A82D-C8594A4037B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="4" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
+    <workbookView xWindow="720" yWindow="620" windowWidth="24540" windowHeight="14360" activeTab="5" xr2:uid="{19F3C0A0-9570-044C-9DB6-BBEC6827DA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Bancos de Dados Relacionais" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Neo4J" sheetId="3" r:id="rId3"/>
     <sheet name="REDIS" sheetId="4" r:id="rId4"/>
     <sheet name="Cassandra" sheetId="5" r:id="rId5"/>
+    <sheet name="Cosmos DB" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t xml:space="preserve">Precisa de Atomicidade, Consistência, Isolmento e Durabilidade (ACID) com desempenho </t>
   </si>
@@ -253,13 +254,32 @@
   </si>
   <si>
     <t>Não precisa de integridade referencial;</t>
+  </si>
+  <si>
+    <t>Esta planilha faz parte da série SQL ou NoSQL, publicada no blog DB4Beginners.com
+As seguintes características são fortes índícios de que o Cosmos DB pode ser usado</t>
+  </si>
+  <si>
+    <t>Precisa de distribuição global dos dados;</t>
+  </si>
+  <si>
+    <t>Inclusão de dados em diferentes locais;</t>
+  </si>
+  <si>
+    <t>Segurança e alta disponibilidade necessárias;</t>
+  </si>
+  <si>
+    <t>Necessidade de alto desempenho;</t>
+  </si>
+  <si>
+    <t>Microsserviços são lindos com Cosmos DB;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +346,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -354,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -387,6 +413,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -668,6 +698,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="127000"/>
+          <a:ext cx="3390900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3759200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9F2295-ADA3-7845-8F29-0D42EEC8E01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="76200"/>
           <a:ext cx="3390900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1410,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC21D1B-4FB8-754C-9DBA-0CBCE6B54A79}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1468,4 +1553,55 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC4C536-02D4-2147-ABA1-4D7F9EA77C12}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="97.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="100">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>